--- a/invalid_data_report.xlsx
+++ b/invalid_data_report.xlsx
@@ -224,7 +224,7 @@
     <t>not_a_url</t>
   </si>
   <si>
-    <t>Column J must be a positive integer; got '-3', Column K must be a positive integer; got 'abc', Column L must be 'Seller'; got 'Buyer', Column N must be a positive integer; got '0', Column O must be a positive integer; got '-1', Column P must be 'Flipkart'; got 'flipkart', Column Q must be a positive integer; got 'two', Column R must be a positive integer; got '0', Column T must be a number (int or decimal); got 'not_a_number', Column Z must be a valid country name (first letter capital); got 'india', Column AD must be one of ["GST_0","GST_12","GST_18","GST_3","GST_5","GST_APPAREL"]; got 'GST_99', Column AL must be one of ["Boys","Boys &amp; Girls","Girls","Men","Men &amp; Women","Women"]; got 'Kids', Column AN must be one of ["Acrylic","Beads","Brocade","Canvas","Cotton","Denim","Fabric","Flex","Genuine Leather","Juco","Jute","Leatherette","Metal","Natural Fibre","PU","Plastic","Polyester","Rexine","Satin","Silicon","Silk","Synthetic Leather","Tyvek","Velvet","Wood","Wool"]; got 'Leather', Missing required value in column AO, Column AO must be a number; got 'NaN', Column AT must be a valid URL; got 'not_a_url', Columns AF and AG cannot have the same value</t>
+    <t>Column J must be a positive integer; got '-3', Column K must be a positive integer; got 'abc', Column L must be 'Seller'; got 'Buyer', Column N must be a positive integer; got '0', Column O must be a positive integer; got '-1', Column P must be 'Flipkart'; got 'flipkart', Column Q must be a positive integer; got 'two', Column R must be a positive integer; got '0', Column T must be a number (int or decimal); got 'not_a_number', Column Z must be a valid country name (must be in the predefined list); got 'india', Column AD must be one of ["GST_0","GST_12","GST_18","GST_3","GST_5","GST_APPAREL"]; got 'GST_99', Column AL must be one of ["Boys","Boys &amp; Girls","Girls","Men","Men &amp; Women","Women"]; got 'Kids', Column AN must be one of ["Acrylic","Beads","Brocade","Canvas","Cotton","Denim","Fabric","Flex","Genuine Leather","Juco","Jute","Leatherette","Metal","Natural Fibre","PU","Plastic","Polyester","Rexine","Satin","Silicon","Silk","Synthetic Leather","Tyvek","Velvet","Wood","Wool"]; got 'Leather', Missing required value in column AO, Column AO must be a number; got 'NaN', Column AT must be a valid URL; got 'not_a_url', Columns AF and AG cannot have the same value</t>
   </si>
 </sst>
 </file>

--- a/invalid_data_report.xlsx
+++ b/invalid_data_report.xlsx
@@ -15,216 +15,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>AT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>Seller SKU ID</t>
+  </si>
+  <si>
+    <t>MRP (INR)</t>
+  </si>
+  <si>
+    <t>Your selling price (INR)</t>
+  </si>
+  <si>
+    <t>Fullfilment by</t>
+  </si>
+  <si>
+    <t>Procurement SLA (DAY)</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Shipping provider</t>
+  </si>
+  <si>
+    <t>Local delivery charge (INR)</t>
+  </si>
+  <si>
+    <t>Zonal delivery charge (INR)</t>
+  </si>
+  <si>
+    <t>National delivery charge (INR)</t>
+  </si>
+  <si>
+    <t>Height (CM)</t>
+  </si>
+  <si>
+    <t>Weight (KG)</t>
+  </si>
+  <si>
+    <t>Breadth (CM)</t>
+  </si>
+  <si>
+    <t>Length (CM)</t>
+  </si>
+  <si>
+    <t>Country Of Origin</t>
+  </si>
+  <si>
+    <t>Manufacturer Details</t>
+  </si>
+  <si>
+    <t>Packer Details</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Brand Color</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Style Code</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ideal For</t>
+  </si>
+  <si>
+    <t>Occasion</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Pack of</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Height - Measuring Unit</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Width - Measuring Unit</t>
+  </si>
+  <si>
+    <t>Main Image URL</t>
   </si>
   <si>
     <t>Validation Errors</t>
   </si>
   <si>
-    <t>Another G</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>flipkart</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>not_a_number</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>AA_invalid</t>
-  </si>
-  <si>
-    <t>AB_invalid</t>
-  </si>
-  <si>
-    <t>GST_99</t>
-  </si>
-  <si>
-    <t>SameValue</t>
-  </si>
-  <si>
-    <t>AH_invalid</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>AJ_invalid</t>
-  </si>
-  <si>
-    <t>Tote</t>
-  </si>
-  <si>
-    <t>Kids</t>
-  </si>
-  <si>
-    <t>Evening/Party</t>
-  </si>
-  <si>
-    <t>Leather</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>not_a_url</t>
-  </si>
-  <si>
-    <t>Column J must be a positive integer; got '-3', Column K must be a positive integer; got 'abc', Column L must be 'Seller'; got 'Buyer', Column N must be a positive integer; got '0', Column O must be a positive integer; got '-1', Column P must be 'Flipkart'; got 'flipkart', Column Q must be a positive integer; got 'two', Column R must be a positive integer; got '0', Column T must be a number (int or decimal); got 'not_a_number', Column Z must be a valid country name (must be in the predefined list); got 'india', Column AD must be one of ["GST_0","GST_12","GST_18","GST_3","GST_5","GST_APPAREL"]; got 'GST_99', Column AL must be one of ["Boys","Boys &amp; Girls","Girls","Men","Men &amp; Women","Women"]; got 'Kids', Column AN must be one of ["Acrylic","Beads","Brocade","Canvas","Cotton","Denim","Fabric","Flex","Genuine Leather","Juco","Jute","Leatherette","Metal","Natural Fibre","PU","Plastic","Polyester","Rexine","Satin","Silicon","Silk","Synthetic Leather","Tyvek","Velvet","Wood","Wool"]; got 'Leather', Missing required value in column AO, Column AO must be a number; got 'NaN', Column AT must be a valid URL; got 'not_a_url', Columns AF and AG cannot have the same value</t>
+    <t>SKU54321</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>OtherProvider</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>ManufacturerY</t>
+  </si>
+  <si>
+    <t>PackerZ</t>
+  </si>
+  <si>
+    <t>GST_0</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>ModelY</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>StyleB</t>
+  </si>
+  <si>
+    <t>Satchel</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>Denim</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>invalid-url</t>
+  </si>
+  <si>
+    <t>Column 'Main Image URL' must be a valid URL; got 'invalid-url'</t>
   </si>
 </sst>
 </file>
@@ -564,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +518,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,148 +621,109 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="B2">
+        <v>950</v>
+      </c>
+      <c r="C2">
+        <v>850</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <v>45</v>
+      </c>
+      <c r="J2">
+        <v>65</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>1.2</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:47">
-      <c r="G2" t="s">
+      <c r="Z2" t="s">
         <v>47</v>
       </c>
-      <c r="J2">
-        <v>-3</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AA2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
         <v>49</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="AE2">
+        <v>22</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AH2" t="s">
         <v>51</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2">
-        <v>2.5</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2">
-        <v>10.5</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2">
-        <v>20</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/invalid_data_report.xlsx
+++ b/invalid_data_report.xlsx
@@ -170,7 +170,7 @@
     <t>invalid-url</t>
   </si>
   <si>
-    <t>Column 'Main Image URL' must be a valid URL; got 'invalid-url'</t>
+    <t>Column 'Shipping provider' must be 'Flipkart'; got 'OtherProvider', Column 'Main Image URL' must be a valid URL; got 'invalid-url'</t>
   </si>
 </sst>
 </file>
